--- a/assets/resources/datatables/Bullet.xlsx
+++ b/assets/resources/datatables/Bullet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48494FA8-0235-4BE0-837F-AB6033E91591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C75945-E120-40B3-AAAC-F3C65F947FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="5805" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,70 @@
   </si>
   <si>
     <t>爆炸音效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手枪子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPG子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法杖子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMG子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左轮子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双管喷子弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soundId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>expType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞行距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flightDis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,18 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,7 +482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -424,25 +490,31 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -450,10 +522,31 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -461,41 +554,207 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>6301</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.01</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>7001</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>6302</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>0.01</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>7001</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>6303</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>0.01</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>7001</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>6304</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <v>0.01</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>7001</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>6305</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>0.01</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>7001</v>
+      </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>6306</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>7001</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/assets/resources/datatables/Bullet.xlsx
+++ b/assets/resources/datatables/Bullet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C75945-E120-40B3-AAAC-F3C65F947FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB4526E-B963-43CE-AD46-8B4B250C3A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="870" yWindow="-60" windowWidth="37590" windowHeight="21720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="3195" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>爆炸类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>爆炸音效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,15 +123,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>expType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>飞行距离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>flightDis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,7 +464,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -490,7 +490,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -505,13 +505,13 @@
         <v>9</v>
       </c>
       <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -522,28 +522,28 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -554,7 +554,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -583,7 +583,7 @@
         <v>1001</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>6301</v>
@@ -592,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="F5">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -604,7 +604,7 @@
         <v>7001</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -612,7 +612,7 @@
         <v>1002</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>6302</v>
@@ -621,10 +621,10 @@
         <v>15</v>
       </c>
       <c r="F6">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>7001</v>
       </c>
       <c r="J6">
-        <v>10</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -641,7 +641,7 @@
         <v>1003</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>6303</v>
@@ -650,19 +650,19 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>7001</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
         <v>1004</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>6304</v>
@@ -679,7 +679,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -691,7 +691,7 @@
         <v>7001</v>
       </c>
       <c r="J8">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -699,7 +699,7 @@
         <v>1005</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
         <v>6305</v>
@@ -708,19 +708,19 @@
         <v>25</v>
       </c>
       <c r="F9">
-        <v>0.01</v>
+        <v>0.2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>7001</v>
       </c>
       <c r="J9">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -728,7 +728,7 @@
         <v>1006</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>6306</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I10">
         <v>7001</v>

--- a/assets/resources/datatables/Bullet.xlsx
+++ b/assets/resources/datatables/Bullet.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FB4526E-B963-43CE-AD46-8B4B250C3A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89466E90-5670-4C6C-843C-FF542339A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="3195" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7515" yWindow="4245" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Bullet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,6 +136,14 @@
   </si>
   <si>
     <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxKillNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大击杀</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,9 +480,10 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -513,8 +522,11 @@
       <c r="J2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -545,8 +557,11 @@
       <c r="J3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -577,8 +592,11 @@
       <c r="J4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5">
         <v>1001</v>
       </c>
@@ -604,10 +622,13 @@
         <v>7001</v>
       </c>
       <c r="J5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6">
         <v>1002</v>
       </c>
@@ -624,7 +645,7 @@
         <v>0.08</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -635,8 +656,11 @@
       <c r="J6">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>1003</v>
       </c>
@@ -650,7 +674,7 @@
         <v>20</v>
       </c>
       <c r="F7">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -662,10 +686,13 @@
         <v>7001</v>
       </c>
       <c r="J7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3.6</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>1004</v>
       </c>
@@ -693,8 +720,11 @@
       <c r="J8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>1005</v>
       </c>
@@ -722,8 +752,11 @@
       <c r="J9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>1006</v>
       </c>
@@ -740,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -749,7 +782,10 @@
         <v>7001</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/resources/datatables/Bullet.xlsx
+++ b/assets/resources/datatables/Bullet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89466E90-5670-4C6C-843C-FF542339A825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2378919-A72A-4280-AC6C-D9E64F317B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7515" yWindow="4245" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8820" yWindow="4920" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bullet" sheetId="1" r:id="rId1"/>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/assets/resources/datatables/Bullet.xlsx
+++ b/assets/resources/datatables/Bullet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WheelChairMan\assets\resources\datatables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2378919-A72A-4280-AC6C-D9E64F317B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52D83F1-CE10-4169-B93B-99D2BAFC9D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8820" yWindow="4920" windowWidth="28110" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,7 +770,7 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -782,7 +782,7 @@
         <v>7001</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="K10">
         <v>-1</v>
